--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1952.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1952.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.001*"exchange" + 0.001*"import" + 0.001*"export" + 0.001*"rate" + 0.001*"country" + 0.001*"license" + 0.001*"require" + 0.001*"payment" + 0.001*"fund" + 0.001*"per"</t>
-  </si>
-  <si>
-    <t>0.008*"exchange" + 0.007*"rate" + 0.006*"import" + 0.005*"export" + 0.004*"payment" + 0.004*"country" + 0.004*"license" + 0.003*"require" + 0.003*"monetary" + 0.003*"fund"</t>
-  </si>
-  <si>
-    <t>0.031*"exchange" + 0.023*"import" + 0.021*"rate" + 0.016*"export" + 0.015*"country" + 0.015*"license" + 0.013*"payment" + 0.012*"per" + 0.011*"require" + 0.011*"fund"</t>
-  </si>
-  <si>
-    <t>0.002*"exchange" + 0.001*"rate" + 0.001*"import" + 0.001*"export" + 0.001*"country" + 0.001*"per" + 0.001*"license" + 0.001*"payment" + 0.001*"u" + 0.001*"foreign"</t>
-  </si>
-  <si>
-    <t>0.014*"exchange" + 0.010*"import" + 0.008*"rate" + 0.007*"country" + 0.007*"export" + 0.006*"per" + 0.006*"license" + 0.006*"require" + 0.005*"payment" + 0.005*"capital"</t>
+    <t>0.044*"fund" + 0.040*"monetary" + 0.039*"international" + 0.035*"exchange" + 0.030*"restriction" + 0.020*"import" + 0.018*"redistribution" + 0.017*"system" + 0.016*"payment" + 0.014*"currency"</t>
+  </si>
+  <si>
+    <t>0.083*"rate" + 0.062*"exchange" + 0.036*"export" + 0.025*"surrender" + 0.024*"must" + 0.023*"receipt" + 0.019*"market" + 0.019*"free" + 0.017*"official" + 0.016*"foreign"</t>
+  </si>
+  <si>
+    <t>0.058*"import" + 0.040*"license" + 0.031*"capital" + 0.031*"require" + 0.023*"exchange" + 0.022*"payment" + 0.022*"country" + 0.020*"export" + 0.017*"certain" + 0.015*"good"</t>
+  </si>
+  <si>
+    <t>0.020*"may" + 0.020*"currency" + 0.016*"member" + 0.014*"franc" + 0.014*"country" + 0.014*"case" + 0.013*"article" + 0.012*"section" + 0.012*"account" + 0.010*"person"</t>
+  </si>
+  <si>
+    <t>0.036*"per" + 0.029*"dollar" + 0.025*"cent" + 0.020*"invisibles" + 0.019*"country" + 0.016*"sterling" + 0.013*"area" + 0.012*"redistribution" + 0.011*"exchange" + 0.011*"payment"</t>
   </si>
 </sst>
 </file>
